--- a/excel/temp.xlsx
+++ b/excel/temp.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,6 +63,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,10 +342,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -353,7 +354,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -363,17 +364,17 @@
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -383,9 +384,14 @@
           <t>total_in_progress</t>
         </is>
       </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>formulas</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -409,9 +415,13 @@
         <f>COUNTIF(D:D,"=InProgress")</f>
         <v/>
       </c>
+      <c r="G2">
+        <f>C2+5</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -426,7 +436,7 @@
           <t>40201013</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
@@ -435,6 +445,10 @@
         <f>COUNTIF(D:D,"=Completed")</f>
         <v/>
       </c>
+      <c r="G3">
+        <f>C3+5</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -452,10 +466,14 @@
           <t>40201014</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
+      </c>
+      <c r="G4">
+        <f>C4+5</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -474,15 +492,19 @@
           <t>40201015</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Exception</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>Wrong credentials</t>
         </is>
+      </c>
+      <c r="G5">
+        <f>C5+5</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -501,10 +523,14 @@
           <t>40201016</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>C6+5</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -528,6 +554,10 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G7">
+        <f>C7+5</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -550,9 +580,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G8">
+        <f>C8+5</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -572,9 +606,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G9">
+        <f>C9+5</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -594,9 +632,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G10">
+        <f>C10+5</f>
+        <v/>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -616,9 +658,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G11">
+        <f>C11+5</f>
+        <v/>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -638,9 +684,13 @@
           <t>Complete</t>
         </is>
       </c>
+      <c r="G12">
+        <f>C12+5</f>
+        <v/>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -660,9 +710,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G13">
+        <f>C13+5</f>
+        <v/>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -682,9 +736,13 @@
           <t>InProgress</t>
         </is>
       </c>
+      <c r="G14">
+        <f>C14+5</f>
+        <v/>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -703,6 +761,514 @@
         <is>
           <t>InProgress</t>
         </is>
+      </c>
+      <c r="G15">
+        <f>C15+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16">
+        <f>C16+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17">
+        <f>C17+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18">
+        <f>C18+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19">
+        <f>C19+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20">
+        <f>C20+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21">
+        <f>C21+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22">
+        <f>C22+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23">
+        <f>C23+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24">
+        <f>C24+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25">
+        <f>C25+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26">
+        <f>C26+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27">
+        <f>C27+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28">
+        <f>C28+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29">
+        <f>C29+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30">
+        <f>C30+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31">
+        <f>C31+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32">
+        <f>C32+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33">
+        <f>C33+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34">
+        <f>C34+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35">
+        <f>C35+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36">
+        <f>C36+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37">
+        <f>C37+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38">
+        <f>C38+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39">
+        <f>C39+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40">
+        <f>C40+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41">
+        <f>C41+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42">
+        <f>C42+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43">
+        <f>C43+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44">
+        <f>C44+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45">
+        <f>C45+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46">
+        <f>C46+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47">
+        <f>C47+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48">
+        <f>C48+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49">
+        <f>C49+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50">
+        <f>C50+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51">
+        <f>C51+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52">
+        <f>C52+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53">
+        <f>C53+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54">
+        <f>C54+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55">
+        <f>C55+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="G56">
+        <f>C56+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="G57">
+        <f>C57+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="G58">
+        <f>C58+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="G59">
+        <f>C59+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60">
+        <f>C60+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="G61">
+        <f>C61+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="G62">
+        <f>C62+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63">
+        <f>C63+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64">
+        <f>C64+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65">
+        <f>C65+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66">
+        <f>C66+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67">
+        <f>C67+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68">
+        <f>C68+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69">
+        <f>C69+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70">
+        <f>C70+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71">
+        <f>C71+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72">
+        <f>C72+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73">
+        <f>C73+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="G74">
+        <f>C74+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75">
+        <f>C75+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76">
+        <f>C76+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77">
+        <f>C77+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78">
+        <f>C78+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79">
+        <f>C79+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80">
+        <f>C80+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81">
+        <f>C81+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="G82">
+        <f>C82+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="G83">
+        <f>C83+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84">
+        <f>C84+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="G85">
+        <f>C85+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86">
+        <f>C86+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="G87">
+        <f>C87+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="G88">
+        <f>C88+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="G89">
+        <f>C89+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90">
+        <f>C90+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="G91">
+        <f>C91+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92">
+        <f>C92+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="G93">
+        <f>C93+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="G94">
+        <f>C94+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95">
+        <f>C95+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96">
+        <f>C96+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97">
+        <f>C97+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98">
+        <f>C98+5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="G99">
+        <f>C99+5</f>
+        <v/>
       </c>
     </row>
   </sheetData>
